--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_180.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_180.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2132352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'E', 'B:9']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.74, 22.56)]</t>
+          <t>[['A', 'E', 'B:9']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.26, 15.94)]</t>
+          <t>[('0:00:07.705280', '0:00:14.752537')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:30.820949', '0:00:39.516821')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230195712954334</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07517281105990783</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['Ab', 'Ab:7', 'Db']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.44, 27.92)]</t>
+          <t>[['G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.898503, 16.109841)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:34.880000', '0:01:37.740000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:58.265237', '0:01:07.100430')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1558441558441558</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db', 'Ab', 'Ab'], ['Ab:7', 'Ab:7', 'Db', 'Db'], ['Ab', 'Ab', 'Db', 'Db']]</t>
-        </is>
+          <t>isophonics_60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_62</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1108622620380739</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'F', 'C', 'C'], ['C:7', 'C:7', 'F', 'F'], ['C', 'C', 'F', 'F']]</t>
+          <t>[['C', 'D', 'G'], ['D', 'G', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(110.82, 114.76), (79.82, 83.68), (116.69, 120.62)]</t>
+          <t>[['A', 'B', 'E'], ['B', 'E', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(37.28, 38.9), (39.86, 41.47), (36.0, 37.61)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.980790', '0:00:05.421882'), ('0:00:52.674489', '0:00:57.422970')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:21.577709', '0:00:29.878843'), ('0:00:23.621065', '0:00:31.968639')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0889423076923077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['E:7', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[('0:00:15.560000', '0:00:23.180000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:00.446618', '0:00:13.878853')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1016666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.02, 10.62)]</t>
+          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(47.06, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.939480', '0:00:19.795536'), ('0:00:38.139299', '0:00:41.982202')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:51.090272', '0:00:53.876666'), ('0:00:50.382063', '0:00:52.460249')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.0, 35.52)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(93.1, 111.54)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1595022624434389</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.525011, 20.319206), (9.370997, 22.141972)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.432, 32.032), (134.784, 141.453)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1116071428571428</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.371, 50.945)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.78, 11.89)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(158.3, 161.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.5, 22.22)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08973214285714286</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Ab']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.148775, 43.514126)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.286, 15.006)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1583333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.162102, 14.073123)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#', 'A:maj/9', 'B'], ['A:maj/9', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'G', 'A'], ['G', 'A', 'D']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.216984, 22.599387), (22.599387, 29.576984)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.787233, 15.592222), (29.965374, 34.307505)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3576923076923077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(140.58, 143.32), (138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.874217, 37.657528), (33.698526, 40.885102)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
